--- a/CSISProject-GrpX/Excel/Client.xlsx
+++ b/CSISProject-GrpX/Excel/Client.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Workspace\GitHub\csis3280\CSISProject-GrpX\CSV FIles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Workspace\GitHub\csis3280\CSISProject-GrpX\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -19,159 +19,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>ClientID</t>
-  </si>
-  <si>
-    <t>ClientName</t>
-  </si>
-  <si>
-    <t>ClientDOB</t>
-  </si>
-  <si>
-    <t>ClientPhoneNo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Stephanie Panswick</t>
   </si>
   <si>
-    <t>657-78-5116</t>
-  </si>
-  <si>
     <t>(154) 5632033</t>
   </si>
   <si>
     <t>Clarie Glantz</t>
   </si>
   <si>
-    <t>116-57-3193</t>
-  </si>
-  <si>
     <t>(850) 4358215</t>
   </si>
   <si>
     <t>Birgitta Retchless</t>
   </si>
   <si>
-    <t>694-41-4273</t>
-  </si>
-  <si>
     <t>(754) 9220765</t>
   </si>
   <si>
     <t>Erminie Scuse</t>
   </si>
   <si>
-    <t>852-41-7995</t>
-  </si>
-  <si>
     <t>(352) 6510393</t>
   </si>
   <si>
     <t>Sula Agastina</t>
   </si>
   <si>
-    <t>801-26-0767</t>
-  </si>
-  <si>
     <t>(121) 2079044</t>
   </si>
   <si>
     <t>Zia McLevie</t>
   </si>
   <si>
-    <t>738-34-3681</t>
-  </si>
-  <si>
     <t>(938) 1891897</t>
   </si>
   <si>
     <t>Clarance Bodley</t>
   </si>
   <si>
-    <t>898-34-0396</t>
-  </si>
-  <si>
     <t>(549) 9654176</t>
   </si>
   <si>
     <t>Mollee Seamans</t>
   </si>
   <si>
-    <t>170-77-1494</t>
-  </si>
-  <si>
     <t>(386) 9738337</t>
   </si>
   <si>
     <t>Even Robyns</t>
   </si>
   <si>
-    <t>665-35-8569</t>
-  </si>
-  <si>
     <t>(806) 1591291</t>
   </si>
   <si>
     <t>Tulley Lailey</t>
   </si>
   <si>
-    <t>473-61-8476</t>
-  </si>
-  <si>
     <t>(801) 1577397</t>
   </si>
   <si>
     <t>Paul Dovydenas</t>
   </si>
   <si>
-    <t>203-96-8813</t>
-  </si>
-  <si>
     <t>(360) 1756778</t>
   </si>
   <si>
     <t>Eb Colbeck</t>
   </si>
   <si>
-    <t>175-62-5837</t>
-  </si>
-  <si>
     <t>(974) 8699103</t>
   </si>
   <si>
     <t>Tracy Wasling</t>
   </si>
   <si>
-    <t>424-78-3555</t>
-  </si>
-  <si>
     <t>(973) 6473788</t>
   </si>
   <si>
     <t>Shepperd Brackenridge</t>
   </si>
   <si>
-    <t>296-64-4490</t>
-  </si>
-  <si>
     <t>(219) 3070468</t>
   </si>
   <si>
     <t>Meridith Lording</t>
   </si>
   <si>
-    <t>263-20-9133</t>
-  </si>
-  <si>
     <t>(618) 8493700</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>phoneNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,8 +604,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1005,25 +961,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1031,13 +995,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25881</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,13 +1009,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>31617</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,13 +1023,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35063</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,13 +1037,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>33774</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35984</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,13 +1065,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22172</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,13 +1079,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>34940</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,13 +1093,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25573</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,13 +1107,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>26612</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,13 +1121,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>32968</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,13 +1135,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30270</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1149,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18271</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1163,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24880</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1177,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>33192</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,13 +1191,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30101</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
